--- a/data_out/bes_2003_2023/bes_redd_m_f.xlsx
+++ b/data_out/bes_2003_2023/bes_redd_m_f.xlsx
@@ -395,10 +395,8 @@
           <t>Femmine</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22045,4</t>
-        </is>
+      <c r="D2">
+        <v>22045.4</v>
       </c>
     </row>
     <row r="3">
@@ -417,10 +415,8 @@
           <t>Maschi</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32398,9</t>
-        </is>
+      <c r="D3">
+        <v>32398.9</v>
       </c>
     </row>
     <row r="4">
@@ -439,10 +435,8 @@
           <t>Femmine</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19076,0</t>
-        </is>
+      <c r="D4">
+        <v>19076</v>
       </c>
     </row>
     <row r="5">
@@ -461,10 +455,8 @@
           <t>Maschi</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27032,5</t>
-        </is>
+      <c r="D5">
+        <v>27032.5</v>
       </c>
     </row>
   </sheetData>
